--- a/data/processed/ci_12.xlsx
+++ b/data/processed/ci_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,40 +521,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>107525</v>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>67791</v>
       </c>
       <c r="H2" t="n">
-        <v>62</v>
+        <v>96052</v>
       </c>
       <c r="I2" t="n">
-        <v>59</v>
+        <v>170694</v>
       </c>
       <c r="J2" t="n">
-        <v>68</v>
+        <v>143388</v>
       </c>
       <c r="K2" t="n">
-        <v>62.4</v>
+        <v>117090</v>
       </c>
       <c r="L2" t="n">
-        <v>63.25</v>
+        <v>103689</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.25</v>
+        <v>67005</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.06719367588932806</v>
+        <v>0.6462112663831264</v>
       </c>
     </row>
     <row r="3">
@@ -573,12 +573,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -625,40 +625,40 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>59</v>
       </c>
       <c r="H4" t="n">
-        <v>5.8</v>
+        <v>59</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>54</v>
       </c>
       <c r="J4" t="n">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="K4" t="n">
-        <v>5.540000000000001</v>
+        <v>58</v>
       </c>
       <c r="L4" t="n">
-        <v>5.600000000000001</v>
+        <v>59</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.3000000000000007</v>
+        <v>-5</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.05357142857142869</v>
+        <v>-0.0847457627118644</v>
       </c>
     </row>
     <row r="5">
@@ -677,40 +677,40 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>198.4</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>244.9</v>
+        <v>63</v>
       </c>
       <c r="H5" t="n">
-        <v>244.4</v>
+        <v>62</v>
       </c>
       <c r="I5" t="n">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="J5" t="n">
-        <v>249.9</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>227.52</v>
+        <v>62.4</v>
       </c>
       <c r="L5" t="n">
-        <v>234.4</v>
+        <v>63.25</v>
       </c>
       <c r="M5" t="n">
-        <v>-34.40000000000001</v>
+        <v>-4.25</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1467576791808874</v>
+        <v>-0.06719367588932806</v>
       </c>
     </row>
     <row r="6">
@@ -729,40 +729,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>-479</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>-60</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>284</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>-12.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>-86.25</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>370.25</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-4.292753623188406</v>
       </c>
     </row>
     <row r="7">
@@ -781,40 +781,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6000</v>
+        <v>2434</v>
       </c>
       <c r="G7" t="n">
-        <v>3000</v>
+        <v>1209</v>
       </c>
       <c r="H7" t="n">
-        <v>7000</v>
+        <v>1503</v>
       </c>
       <c r="I7" t="n">
-        <v>7000</v>
+        <v>2877</v>
       </c>
       <c r="J7" t="n">
-        <v>6500</v>
+        <v>2207</v>
       </c>
       <c r="K7" t="n">
-        <v>5900</v>
+        <v>2046</v>
       </c>
       <c r="L7" t="n">
-        <v>5625</v>
+        <v>1838.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1375</v>
+        <v>1038.75</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.5650754793961649</v>
       </c>
     </row>
     <row r="8">
@@ -833,40 +833,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2875</v>
+        <v>1955</v>
       </c>
       <c r="G8" t="n">
-        <v>1038</v>
+        <v>1149</v>
       </c>
       <c r="H8" t="n">
-        <v>1279</v>
+        <v>1628</v>
       </c>
       <c r="I8" t="n">
-        <v>3335</v>
+        <v>3161</v>
       </c>
       <c r="J8" t="n">
-        <v>3331</v>
+        <v>2276</v>
       </c>
       <c r="K8" t="n">
-        <v>2371.6</v>
+        <v>2033.8</v>
       </c>
       <c r="L8" t="n">
-        <v>2130.75</v>
+        <v>1752</v>
       </c>
       <c r="M8" t="n">
-        <v>1204.25</v>
+        <v>1409</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5651765810160742</v>
+        <v>0.8042237442922374</v>
       </c>
     </row>
     <row r="9">
@@ -885,40 +885,40 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18000</v>
+        <v>0.1923</v>
       </c>
       <c r="G9" t="n">
-        <v>3500</v>
+        <v>0.113</v>
       </c>
       <c r="H9" t="n">
-        <v>14000</v>
+        <v>0.1601</v>
       </c>
       <c r="I9" t="n">
-        <v>15000</v>
+        <v>0.3108</v>
       </c>
       <c r="J9" t="n">
-        <v>12000</v>
+        <v>0.2238</v>
       </c>
       <c r="K9" t="n">
-        <v>12500</v>
+        <v>0.2</v>
       </c>
       <c r="L9" t="n">
-        <v>11875</v>
+        <v>0.1723</v>
       </c>
       <c r="M9" t="n">
-        <v>3125</v>
+        <v>0.1385</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.8038305281485781</v>
       </c>
     </row>
     <row r="10">
@@ -937,40 +937,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>85</v>
+        <v>198.4</v>
       </c>
       <c r="G10" t="n">
-        <v>110</v>
+        <v>244.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>244.4</v>
       </c>
       <c r="I10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>249.9</v>
       </c>
       <c r="K10" t="n">
-        <v>86</v>
+        <v>227.52</v>
       </c>
       <c r="L10" t="n">
-        <v>63.75</v>
+        <v>234.4</v>
       </c>
       <c r="M10" t="n">
-        <v>111.25</v>
+        <v>-34.40000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>1.745098039215686</v>
+        <v>-0.1467576791808874</v>
       </c>
     </row>
     <row r="11">
@@ -989,40 +989,40 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
-        <v>71</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>72</v>
+        <v>5.3</v>
       </c>
       <c r="J11" t="n">
-        <v>81</v>
+        <v>6.3</v>
       </c>
       <c r="K11" t="n">
-        <v>70.8</v>
+        <v>5.540000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>70.5</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>1.5</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02127659574468085</v>
+        <v>-0.05357142857142869</v>
       </c>
     </row>
     <row r="12">
@@ -1041,40 +1041,40 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2434</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1209</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>1503</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>2877</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2207</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2046</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>1838.25</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>1038.75</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5650754793961649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1093,40 +1093,40 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-479</v>
+        <v>2875</v>
       </c>
       <c r="G13" t="n">
-        <v>-60</v>
+        <v>1038</v>
       </c>
       <c r="H13" t="n">
-        <v>125</v>
+        <v>1279</v>
       </c>
       <c r="I13" t="n">
-        <v>284</v>
+        <v>3335</v>
       </c>
       <c r="J13" t="n">
-        <v>69</v>
+        <v>3331</v>
       </c>
       <c r="K13" t="n">
-        <v>-12.2</v>
+        <v>2371.6</v>
       </c>
       <c r="L13" t="n">
-        <v>-86.25</v>
+        <v>2130.75</v>
       </c>
       <c r="M13" t="n">
-        <v>370.25</v>
+        <v>1204.25</v>
       </c>
       <c r="N13" t="n">
-        <v>-4.292753623188406</v>
+        <v>0.5651765810160742</v>
       </c>
     </row>
     <row r="14">
@@ -1145,40 +1145,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1955</v>
+        <v>6000</v>
       </c>
       <c r="G14" t="n">
-        <v>1149</v>
+        <v>3000</v>
       </c>
       <c r="H14" t="n">
-        <v>1628</v>
+        <v>7000</v>
       </c>
       <c r="I14" t="n">
-        <v>3161</v>
+        <v>7000</v>
       </c>
       <c r="J14" t="n">
-        <v>2276</v>
+        <v>6500</v>
       </c>
       <c r="K14" t="n">
-        <v>2033.8</v>
+        <v>5900</v>
       </c>
       <c r="L14" t="n">
-        <v>1752</v>
+        <v>5625</v>
       </c>
       <c r="M14" t="n">
-        <v>1409</v>
+        <v>1375</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8042237442922374</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="15">
@@ -1197,40 +1197,40 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.1923</v>
+        <v>18000</v>
       </c>
       <c r="G15" t="n">
-        <v>0.113</v>
+        <v>3500</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1601</v>
+        <v>14000</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3108</v>
+        <v>15000</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2238</v>
+        <v>12000</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2</v>
+        <v>12500</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1723</v>
+        <v>11875</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1385</v>
+        <v>3125</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8038305281485781</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="16">
@@ -1244,45 +1244,45 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G16" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H16" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I16" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="J16" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K16" t="n">
-        <v>90.2</v>
+        <v>70.8</v>
       </c>
       <c r="L16" t="n">
-        <v>89</v>
+        <v>70.5</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06741573033707865</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="17">
@@ -1296,45 +1296,45 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>110</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
+        <v>175</v>
       </c>
       <c r="J17" t="n">
-        <v>6.3</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>5.540000000000001</v>
+        <v>86</v>
       </c>
       <c r="L17" t="n">
-        <v>5.600000000000001</v>
+        <v>63.75</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.3000000000000007</v>
+        <v>111.25</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.05357142857142869</v>
+        <v>1.745098039215686</v>
       </c>
     </row>
     <row r="18">
@@ -1353,40 +1353,40 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>198.4</v>
+        <v>49725</v>
       </c>
       <c r="G18" t="n">
-        <v>244.9</v>
+        <v>32129</v>
       </c>
       <c r="H18" t="n">
-        <v>244.4</v>
+        <v>34452</v>
       </c>
       <c r="I18" t="n">
-        <v>200</v>
+        <v>44935</v>
       </c>
       <c r="J18" t="n">
-        <v>249.9</v>
+        <v>32775</v>
       </c>
       <c r="K18" t="n">
-        <v>227.52</v>
+        <v>38803.2</v>
       </c>
       <c r="L18" t="n">
-        <v>234.4</v>
+        <v>37270.25</v>
       </c>
       <c r="M18" t="n">
-        <v>-34.40000000000001</v>
+        <v>7664.75</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1467576791808874</v>
+        <v>0.2056533025670609</v>
       </c>
     </row>
     <row r="19">
@@ -1405,40 +1405,40 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>2 - b - Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6</v>
+        <v>90.2</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5</v>
+        <v>89</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.06741573033707865</v>
       </c>
     </row>
     <row r="20">
@@ -1457,40 +1457,40 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>2 - c - Online Orders (000s)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9000</v>
+        <v>585</v>
       </c>
       <c r="G20" t="n">
-        <v>5500</v>
+        <v>361</v>
       </c>
       <c r="H20" t="n">
-        <v>8000</v>
+        <v>396</v>
       </c>
       <c r="I20" t="n">
-        <v>7500</v>
+        <v>473</v>
       </c>
       <c r="J20" t="n">
-        <v>6000</v>
+        <v>345</v>
       </c>
       <c r="K20" t="n">
-        <v>7200</v>
+        <v>432</v>
       </c>
       <c r="L20" t="n">
-        <v>7125</v>
+        <v>421.75</v>
       </c>
       <c r="M20" t="n">
-        <v>375</v>
+        <v>51.25</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.1215174866627149</v>
       </c>
     </row>
     <row r="21">
@@ -1509,40 +1509,40 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>2 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>18000</v>
+        <v>585</v>
       </c>
       <c r="G21" t="n">
-        <v>3500</v>
+        <v>361</v>
       </c>
       <c r="H21" t="n">
-        <v>14000</v>
+        <v>396</v>
       </c>
       <c r="I21" t="n">
-        <v>15000</v>
+        <v>473</v>
       </c>
       <c r="J21" t="n">
-        <v>12000</v>
+        <v>345</v>
       </c>
       <c r="K21" t="n">
-        <v>12500</v>
+        <v>432</v>
       </c>
       <c r="L21" t="n">
-        <v>11875</v>
+        <v>421.75</v>
       </c>
       <c r="M21" t="n">
-        <v>3125</v>
+        <v>51.25</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.1215174866627149</v>
       </c>
     </row>
     <row r="22">
@@ -1561,40 +1561,40 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>2 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>85</v>
+        <v>0.2708</v>
       </c>
       <c r="G22" t="n">
-        <v>110</v>
+        <v>0.1671</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.1833</v>
       </c>
       <c r="I22" t="n">
-        <v>175</v>
+        <v>0.219</v>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>0.1597</v>
       </c>
       <c r="K22" t="n">
-        <v>86</v>
+        <v>0.19998</v>
       </c>
       <c r="L22" t="n">
-        <v>63.75</v>
+        <v>0.195225</v>
       </c>
       <c r="M22" t="n">
-        <v>111.25</v>
+        <v>0.02377500000000002</v>
       </c>
       <c r="N22" t="n">
-        <v>1.745098039215686</v>
+        <v>0.1217825585862467</v>
       </c>
     </row>
     <row r="23">
@@ -1613,40 +1613,40 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>2 - e - Model Availability</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>70</v>
+        <v>198.4</v>
       </c>
       <c r="G23" t="n">
-        <v>60</v>
+        <v>244.9</v>
       </c>
       <c r="H23" t="n">
-        <v>71</v>
+        <v>244.4</v>
       </c>
       <c r="I23" t="n">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="J23" t="n">
-        <v>81</v>
+        <v>249.9</v>
       </c>
       <c r="K23" t="n">
-        <v>70.8</v>
+        <v>227.52</v>
       </c>
       <c r="L23" t="n">
-        <v>70.5</v>
+        <v>234.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.5</v>
+        <v>-34.40000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02127659574468085</v>
+        <v>-0.1467576791808874</v>
       </c>
     </row>
     <row r="24">
@@ -1665,40 +1665,40 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>361</v>
+        <v>5.3</v>
       </c>
       <c r="H24" t="n">
-        <v>396</v>
+        <v>5.8</v>
       </c>
       <c r="I24" t="n">
-        <v>473</v>
+        <v>5.3</v>
       </c>
       <c r="J24" t="n">
-        <v>345</v>
+        <v>6.3</v>
       </c>
       <c r="K24" t="n">
-        <v>432</v>
+        <v>5.540000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>421.75</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>51.25</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1215174866627149</v>
+        <v>-0.05357142857142869</v>
       </c>
     </row>
     <row r="25">
@@ -1717,40 +1717,40 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>2 - f - Free Shipping</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>361</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>473</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>432</v>
+        <v>0.6</v>
       </c>
       <c r="L25" t="n">
-        <v>421.75</v>
+        <v>0.5</v>
       </c>
       <c r="M25" t="n">
-        <v>51.25</v>
+        <v>0.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1215174866627149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1769,40 +1769,40 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>2 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.2708</v>
+        <v>18000</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1671</v>
+        <v>3500</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1833</v>
+        <v>14000</v>
       </c>
       <c r="I26" t="n">
-        <v>0.219</v>
+        <v>15000</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1597</v>
+        <v>12000</v>
       </c>
       <c r="K26" t="n">
-        <v>0.19998</v>
+        <v>12500</v>
       </c>
       <c r="L26" t="n">
-        <v>0.195225</v>
+        <v>11875</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02377500000000002</v>
+        <v>3125</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1217825585862467</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="27">
@@ -1816,45 +1816,45 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G27" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H27" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J27" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
-        <v>23.8</v>
+        <v>70.8</v>
       </c>
       <c r="L27" t="n">
-        <v>29.75</v>
+        <v>70.5</v>
       </c>
       <c r="M27" t="n">
-        <v>-29.75</v>
+        <v>1.5</v>
       </c>
       <c r="N27" t="n">
-        <v>-1</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="28">
@@ -1868,45 +1868,45 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>2 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G28" t="n">
-        <v>4.3</v>
+        <v>110</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="J28" t="n">
-        <v>4.5</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>2.64</v>
+        <v>86</v>
       </c>
       <c r="L28" t="n">
-        <v>3.3</v>
+        <v>63.75</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.3</v>
+        <v>111.25</v>
       </c>
       <c r="N28" t="n">
-        <v>-1</v>
+        <v>1.745098039215686</v>
       </c>
     </row>
     <row r="29">
@@ -1920,45 +1920,45 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G29" t="n">
-        <v>2001</v>
+        <v>5500</v>
       </c>
       <c r="H29" t="n">
-        <v>874</v>
+        <v>8000</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J29" t="n">
-        <v>394</v>
+        <v>6000</v>
       </c>
       <c r="K29" t="n">
-        <v>653.8</v>
+        <v>7200</v>
       </c>
       <c r="L29" t="n">
-        <v>817.25</v>
+        <v>7125</v>
       </c>
       <c r="M29" t="n">
-        <v>-817.25</v>
+        <v>375</v>
       </c>
       <c r="N29" t="n">
-        <v>-1</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="30">
@@ -1977,37 +1977,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>3 - a - Offer Income ($000s)</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>344</v>
+        <v>15480</v>
       </c>
       <c r="H30" t="n">
-        <v>492</v>
+        <v>20664</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>394</v>
+        <v>12608</v>
       </c>
       <c r="K30" t="n">
-        <v>246</v>
+        <v>9750.4</v>
       </c>
       <c r="L30" t="n">
-        <v>307.5</v>
+        <v>12188</v>
       </c>
       <c r="M30" t="n">
-        <v>-307.5</v>
+        <v>-12188</v>
       </c>
       <c r="N30" t="n">
         <v>-1</v>
@@ -2029,37 +2029,37 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+          <t>3 - b - Offer Price (max = $40.00)</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.28</v>
+        <v>45</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4</v>
+        <v>42</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2</v>
+        <v>23.8</v>
       </c>
       <c r="L31" t="n">
-        <v>0.25</v>
+        <v>29.75</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.25</v>
+        <v>-29.75</v>
       </c>
       <c r="N31" t="n">
         <v>-1</v>
@@ -2071,50 +2071,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>3 - c - Pairs Offered (000s)</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>67</v>
+        <v>2001</v>
       </c>
       <c r="H32" t="n">
-        <v>64</v>
+        <v>874</v>
       </c>
       <c r="I32" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>70</v>
+        <v>394</v>
       </c>
       <c r="K32" t="n">
-        <v>64.8</v>
+        <v>653.8</v>
       </c>
       <c r="L32" t="n">
-        <v>65.25</v>
+        <v>817.25</v>
       </c>
       <c r="M32" t="n">
-        <v>-2.25</v>
+        <v>-817.25</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -2123,47 +2123,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>3 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>344</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>394</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>246</v>
       </c>
       <c r="L33" t="n">
-        <v>4.75</v>
+        <v>307.5</v>
       </c>
       <c r="M33" t="n">
-        <v>-4.75</v>
+        <v>-307.5</v>
       </c>
       <c r="N33" t="n">
         <v>-1</v>
@@ -2175,50 +2175,50 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>3 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.3</v>
+        <v>0.28</v>
       </c>
       <c r="H34" t="n">
-        <v>5.7</v>
+        <v>0.4</v>
       </c>
       <c r="I34" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.1</v>
+        <v>0.32</v>
       </c>
       <c r="K34" t="n">
-        <v>5.42</v>
+        <v>0.2</v>
       </c>
       <c r="L34" t="n">
-        <v>5.424999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.02499999999999858</v>
+        <v>-0.25</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.004608294930875315</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -2227,50 +2227,50 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>287.6</v>
+        <v>4.3</v>
       </c>
       <c r="H35" t="n">
-        <v>248.5</v>
+        <v>4.4</v>
       </c>
       <c r="I35" t="n">
-        <v>150.3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>248.7</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
-        <v>227.02</v>
+        <v>2.64</v>
       </c>
       <c r="L35" t="n">
-        <v>246.2</v>
+        <v>3.3</v>
       </c>
       <c r="M35" t="n">
-        <v>-95.89999999999998</v>
+        <v>-3.3</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.3895207148659626</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -2289,40 +2289,40 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>126720</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>107970</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>92537</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>74655</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>135460</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>107468.4</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>115671.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>-41016.75</v>
       </c>
       <c r="N36" t="n">
-        <v>0.5</v>
+        <v>-0.354596087635918</v>
       </c>
     </row>
     <row r="37">
@@ -2341,40 +2341,40 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7000</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>5000</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>7000</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>4750</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6000</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>5950</v>
+        <v>3.8</v>
       </c>
       <c r="L37" t="n">
-        <v>6250</v>
+        <v>4.75</v>
       </c>
       <c r="M37" t="n">
-        <v>-1500</v>
+        <v>-4.75</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -2393,40 +2393,40 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3200</v>
+        <v>55</v>
       </c>
       <c r="G38" t="n">
-        <v>1191</v>
+        <v>61</v>
       </c>
       <c r="H38" t="n">
-        <v>1470</v>
+        <v>61</v>
       </c>
       <c r="I38" t="n">
-        <v>851</v>
+        <v>63</v>
       </c>
       <c r="J38" t="n">
-        <v>2195</v>
+        <v>65</v>
       </c>
       <c r="K38" t="n">
-        <v>1781.4</v>
+        <v>61</v>
       </c>
       <c r="L38" t="n">
-        <v>2014</v>
+        <v>60.5</v>
       </c>
       <c r="M38" t="n">
-        <v>-1163</v>
+        <v>2.5</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.5774577954319762</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="39">
@@ -2445,40 +2445,40 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>18000</v>
+        <v>60</v>
       </c>
       <c r="G39" t="n">
-        <v>10000</v>
+        <v>67</v>
       </c>
       <c r="H39" t="n">
-        <v>14000</v>
+        <v>64</v>
       </c>
       <c r="I39" t="n">
-        <v>10000</v>
+        <v>63</v>
       </c>
       <c r="J39" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="K39" t="n">
-        <v>12800</v>
+        <v>64.8</v>
       </c>
       <c r="L39" t="n">
-        <v>13500</v>
+        <v>65.25</v>
       </c>
       <c r="M39" t="n">
-        <v>-3500</v>
+        <v>-2.25</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.2592592592592592</v>
+        <v>-0.03448275862068965</v>
       </c>
     </row>
     <row r="40">
@@ -2497,40 +2497,40 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>65</v>
+        <v>-572</v>
       </c>
       <c r="G40" t="n">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J40" t="n">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="K40" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>73.75</v>
+        <v>-45.25</v>
       </c>
       <c r="M40" t="n">
-        <v>76.25</v>
+        <v>226.25</v>
       </c>
       <c r="N40" t="n">
-        <v>1.033898305084746</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="41">
@@ -2549,40 +2549,40 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>70</v>
+        <v>2876</v>
       </c>
       <c r="G41" t="n">
-        <v>60</v>
+        <v>1701</v>
       </c>
       <c r="H41" t="n">
-        <v>71</v>
+        <v>1514</v>
       </c>
       <c r="I41" t="n">
-        <v>72</v>
+        <v>1004</v>
       </c>
       <c r="J41" t="n">
-        <v>81</v>
+        <v>1765</v>
       </c>
       <c r="K41" t="n">
-        <v>70.8</v>
+        <v>1772</v>
       </c>
       <c r="L41" t="n">
-        <v>70.5</v>
+        <v>1964</v>
       </c>
       <c r="M41" t="n">
-        <v>1.5</v>
+        <v>-960</v>
       </c>
       <c r="N41" t="n">
-        <v>0.02127659574468085</v>
+        <v>-0.4887983706720977</v>
       </c>
     </row>
     <row r="42">
@@ -2601,40 +2601,40 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2876</v>
+        <v>2304</v>
       </c>
       <c r="G42" t="n">
-        <v>1701</v>
+        <v>1770</v>
       </c>
       <c r="H42" t="n">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="I42" t="n">
-        <v>1004</v>
+        <v>1185</v>
       </c>
       <c r="J42" t="n">
-        <v>1765</v>
+        <v>2084</v>
       </c>
       <c r="K42" t="n">
         <v>1772</v>
       </c>
       <c r="L42" t="n">
-        <v>1964</v>
+        <v>1918.75</v>
       </c>
       <c r="M42" t="n">
-        <v>-960</v>
+        <v>-733.75</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.4887983706720977</v>
+        <v>-0.3824104234527687</v>
       </c>
     </row>
     <row r="43">
@@ -2653,40 +2653,40 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-572</v>
+        <v>0.26</v>
       </c>
       <c r="G43" t="n">
-        <v>69</v>
+        <v>0.1998</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0.1712</v>
       </c>
       <c r="I43" t="n">
-        <v>181</v>
+        <v>0.1337</v>
       </c>
       <c r="J43" t="n">
-        <v>319</v>
+        <v>0.2352</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.19998</v>
       </c>
       <c r="L43" t="n">
-        <v>-45.25</v>
+        <v>0.21655</v>
       </c>
       <c r="M43" t="n">
-        <v>226.25</v>
+        <v>-0.08284999999999998</v>
       </c>
       <c r="N43" t="n">
-        <v>-5</v>
+        <v>-0.3825906257215423</v>
       </c>
     </row>
     <row r="44">
@@ -2705,40 +2705,40 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2304</v>
+        <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>1770</v>
+        <v>287.6</v>
       </c>
       <c r="H44" t="n">
-        <v>1517</v>
+        <v>248.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1185</v>
+        <v>150.3</v>
       </c>
       <c r="J44" t="n">
-        <v>2084</v>
+        <v>248.7</v>
       </c>
       <c r="K44" t="n">
-        <v>1772</v>
+        <v>227.02</v>
       </c>
       <c r="L44" t="n">
-        <v>1918.75</v>
+        <v>246.2</v>
       </c>
       <c r="M44" t="n">
-        <v>-733.75</v>
+        <v>-95.89999999999998</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.3824104234527687</v>
+        <v>-0.3895207148659626</v>
       </c>
     </row>
     <row r="45">
@@ -2757,40 +2757,40 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.26</v>
+        <v>4.6</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1998</v>
+        <v>5.3</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1712</v>
+        <v>5.7</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1337</v>
+        <v>5.4</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2352</v>
+        <v>6.1</v>
       </c>
       <c r="K45" t="n">
-        <v>0.19998</v>
+        <v>5.42</v>
       </c>
       <c r="L45" t="n">
-        <v>0.21655</v>
+        <v>5.424999999999999</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.08284999999999998</v>
+        <v>-0.02499999999999858</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.3825906257215423</v>
+        <v>-0.004608294930875315</v>
       </c>
     </row>
     <row r="46">
@@ -2804,45 +2804,45 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>94.40000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0.07526881720430108</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
@@ -2856,45 +2856,45 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.6</v>
+        <v>3200</v>
       </c>
       <c r="G47" t="n">
-        <v>5.3</v>
+        <v>1191</v>
       </c>
       <c r="H47" t="n">
-        <v>5.7</v>
+        <v>1470</v>
       </c>
       <c r="I47" t="n">
-        <v>5.4</v>
+        <v>851</v>
       </c>
       <c r="J47" t="n">
-        <v>6.1</v>
+        <v>2195</v>
       </c>
       <c r="K47" t="n">
-        <v>5.42</v>
+        <v>1781.4</v>
       </c>
       <c r="L47" t="n">
-        <v>5.424999999999999</v>
+        <v>2014</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.02499999999999858</v>
+        <v>-1163</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.004608294930875315</v>
+        <v>-0.5774577954319762</v>
       </c>
     </row>
     <row r="48">
@@ -2908,45 +2908,45 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="G48" t="n">
-        <v>287.6</v>
+        <v>5000</v>
       </c>
       <c r="H48" t="n">
-        <v>248.5</v>
+        <v>7000</v>
       </c>
       <c r="I48" t="n">
-        <v>150.3</v>
+        <v>4750</v>
       </c>
       <c r="J48" t="n">
-        <v>248.7</v>
+        <v>6000</v>
       </c>
       <c r="K48" t="n">
-        <v>227.02</v>
+        <v>5950</v>
       </c>
       <c r="L48" t="n">
-        <v>246.2</v>
+        <v>6250</v>
       </c>
       <c r="M48" t="n">
-        <v>-95.89999999999998</v>
+        <v>-1500</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.3895207148659626</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="49">
@@ -2960,45 +2960,45 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>18000</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4</v>
+        <v>12800</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5</v>
+        <v>13500</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.5</v>
+        <v>-3500</v>
       </c>
       <c r="N49" t="n">
-        <v>-1</v>
+        <v>-0.2592592592592592</v>
       </c>
     </row>
     <row r="50">
@@ -3012,45 +3012,45 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8000</v>
+        <v>70</v>
       </c>
       <c r="G50" t="n">
-        <v>5000</v>
+        <v>60</v>
       </c>
       <c r="H50" t="n">
-        <v>8000</v>
+        <v>71</v>
       </c>
       <c r="I50" t="n">
-        <v>4000</v>
+        <v>72</v>
       </c>
       <c r="J50" t="n">
-        <v>6500</v>
+        <v>81</v>
       </c>
       <c r="K50" t="n">
-        <v>6300</v>
+        <v>70.8</v>
       </c>
       <c r="L50" t="n">
-        <v>6875</v>
+        <v>70.5</v>
       </c>
       <c r="M50" t="n">
-        <v>-2875</v>
+        <v>1.5</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.4181818181818182</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="51">
@@ -3064,45 +3064,45 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>18000</v>
+        <v>65</v>
       </c>
       <c r="G51" t="n">
-        <v>10000</v>
+        <v>185</v>
       </c>
       <c r="H51" t="n">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="J51" t="n">
-        <v>12000</v>
+        <v>45</v>
       </c>
       <c r="K51" t="n">
-        <v>12800</v>
+        <v>89</v>
       </c>
       <c r="L51" t="n">
-        <v>13500</v>
+        <v>73.75</v>
       </c>
       <c r="M51" t="n">
-        <v>-3500</v>
+        <v>76.25</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.2592592592592592</v>
+        <v>1.033898305084746</v>
       </c>
     </row>
     <row r="52">
@@ -3121,40 +3121,40 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>65</v>
+        <v>46750</v>
       </c>
       <c r="G52" t="n">
-        <v>185</v>
+        <v>40293</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>32940</v>
       </c>
       <c r="I52" t="n">
-        <v>150</v>
+        <v>19500</v>
       </c>
       <c r="J52" t="n">
-        <v>45</v>
+        <v>30478</v>
       </c>
       <c r="K52" t="n">
-        <v>89</v>
+        <v>33992.2</v>
       </c>
       <c r="L52" t="n">
-        <v>73.75</v>
+        <v>37615.25</v>
       </c>
       <c r="M52" t="n">
-        <v>76.25</v>
+        <v>-18115.25</v>
       </c>
       <c r="N52" t="n">
-        <v>1.033898305084746</v>
+        <v>-0.4815932367856122</v>
       </c>
     </row>
     <row r="53">
@@ -3173,40 +3173,40 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>2 - b - Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G53" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="H53" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="I53" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K53" t="n">
-        <v>70.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>70.5</v>
+        <v>93</v>
       </c>
       <c r="M53" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N53" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.07526881720430108</v>
       </c>
     </row>
     <row r="54">
@@ -3225,12 +3225,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>2 - c - Online Orders (000s)</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>2 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>2 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3376,45 +3376,45 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>2 - e - Model Availability</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>287.6</v>
       </c>
       <c r="H57" t="n">
-        <v>44</v>
+        <v>248.5</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>150.3</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>248.7</v>
       </c>
       <c r="K57" t="n">
-        <v>16.2</v>
+        <v>227.02</v>
       </c>
       <c r="L57" t="n">
-        <v>20.25</v>
+        <v>246.2</v>
       </c>
       <c r="M57" t="n">
-        <v>-20.25</v>
+        <v>-95.89999999999998</v>
       </c>
       <c r="N57" t="n">
-        <v>-1</v>
+        <v>-0.3895207148659626</v>
       </c>
     </row>
     <row r="58">
@@ -3428,45 +3428,45 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H58" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="K58" t="n">
-        <v>1.48</v>
+        <v>5.42</v>
       </c>
       <c r="L58" t="n">
-        <v>1.85</v>
+        <v>5.424999999999999</v>
       </c>
       <c r="M58" t="n">
-        <v>-1.85</v>
+        <v>-0.02499999999999858</v>
       </c>
       <c r="N58" t="n">
-        <v>-1</v>
+        <v>-0.004608294930875315</v>
       </c>
     </row>
     <row r="59">
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>2 - f - Free Shipping</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>246.4</v>
+        <v>0.4</v>
       </c>
       <c r="L59" t="n">
-        <v>308</v>
+        <v>0.5</v>
       </c>
       <c r="M59" t="n">
-        <v>-308</v>
+        <v>-0.5</v>
       </c>
       <c r="N59" t="n">
         <v>-1</v>
@@ -3532,45 +3532,45 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>2 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H60" t="n">
-        <v>957</v>
+        <v>14000</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="K60" t="n">
-        <v>191.4</v>
+        <v>12800</v>
       </c>
       <c r="L60" t="n">
-        <v>239.25</v>
+        <v>13500</v>
       </c>
       <c r="M60" t="n">
-        <v>-239.25</v>
+        <v>-3500</v>
       </c>
       <c r="N60" t="n">
-        <v>-1</v>
+        <v>-0.2592592592592592</v>
       </c>
     </row>
     <row r="61">
@@ -3584,45 +3584,45 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>0.778</v>
+        <v>71</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1556</v>
+        <v>70.8</v>
       </c>
       <c r="L61" t="n">
-        <v>0.1945</v>
+        <v>70.5</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.1945</v>
+        <v>1.5</v>
       </c>
       <c r="N61" t="n">
-        <v>-1</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="62">
@@ -3631,50 +3631,50 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>2 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G62" t="n">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="H62" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="J62" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>59.2</v>
+        <v>89</v>
       </c>
       <c r="L62" t="n">
-        <v>60</v>
+        <v>73.75</v>
       </c>
       <c r="M62" t="n">
-        <v>-4</v>
+        <v>76.25</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.06666666666666667</v>
+        <v>1.033898305084746</v>
       </c>
     </row>
     <row r="63">
@@ -3683,50 +3683,50 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>8000</v>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>5000</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>6500</v>
       </c>
       <c r="K63" t="n">
-        <v>3.6</v>
+        <v>6300</v>
       </c>
       <c r="L63" t="n">
-        <v>3.5</v>
+        <v>6875</v>
       </c>
       <c r="M63" t="n">
-        <v>0.5</v>
+        <v>-2875</v>
       </c>
       <c r="N63" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.4181818181818182</v>
       </c>
     </row>
     <row r="64">
@@ -3735,50 +3735,50 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>3 - a - Offer Income ($000s)</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.7</v>
+        <v>42108</v>
       </c>
       <c r="I64" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>5.359999999999999</v>
+        <v>8421.6</v>
       </c>
       <c r="L64" t="n">
-        <v>5.324999999999999</v>
+        <v>10527</v>
       </c>
       <c r="M64" t="n">
-        <v>0.1750000000000007</v>
+        <v>-10527</v>
       </c>
       <c r="N64" t="n">
-        <v>0.03286384976525836</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -3787,50 +3787,50 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>3 - b - Offer Price (max = $40.00)</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="G65" t="n">
-        <v>272.4</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>245.2</v>
+        <v>44</v>
       </c>
       <c r="I65" t="n">
-        <v>150.1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>248.2</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>223.18</v>
+        <v>16.2</v>
       </c>
       <c r="L65" t="n">
-        <v>241.45</v>
+        <v>20.25</v>
       </c>
       <c r="M65" t="n">
-        <v>-91.34999999999999</v>
+        <v>-20.25</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.3783392006626631</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -3839,50 +3839,50 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>3 - c - Pairs Offered (000s)</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>957</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>2.2</v>
+        <v>246.4</v>
       </c>
       <c r="L66" t="n">
-        <v>2.25</v>
+        <v>308</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.25</v>
+        <v>-308</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.1111111111111111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -3891,50 +3891,50 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>3 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>5000</v>
+        <v>957</v>
       </c>
       <c r="I67" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4250</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>4350</v>
+        <v>191.4</v>
       </c>
       <c r="L67" t="n">
-        <v>3937.5</v>
+        <v>239.25</v>
       </c>
       <c r="M67" t="n">
-        <v>2062.5</v>
+        <v>-239.25</v>
       </c>
       <c r="N67" t="n">
-        <v>0.5238095238095238</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
@@ -3943,50 +3943,50 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>3 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2330</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>968</v>
+        <v>0.778</v>
       </c>
       <c r="I68" t="n">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1572</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1431.2</v>
+        <v>0.1556</v>
       </c>
       <c r="L68" t="n">
-        <v>1379.5</v>
+        <v>0.1945</v>
       </c>
       <c r="M68" t="n">
-        <v>258.5</v>
+        <v>-0.1945</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1873867343240304</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -3995,50 +3995,50 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>16000</v>
+        <v>3.2</v>
       </c>
       <c r="G69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>8000</v>
+        <v>4.2</v>
       </c>
       <c r="I69" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>10700</v>
+        <v>1.48</v>
       </c>
       <c r="L69" t="n">
-        <v>9625</v>
+        <v>1.85</v>
       </c>
       <c r="M69" t="n">
-        <v>5375</v>
+        <v>-1.85</v>
       </c>
       <c r="N69" t="n">
-        <v>0.5584415584415584</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -4057,40 +4057,40 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>60</v>
+        <v>63450</v>
       </c>
       <c r="G70" t="n">
-        <v>130</v>
+        <v>66918</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>61740</v>
       </c>
       <c r="I70" t="n">
-        <v>160</v>
+        <v>101972</v>
       </c>
       <c r="J70" t="n">
-        <v>100</v>
+        <v>94160</v>
       </c>
       <c r="K70" t="n">
-        <v>90</v>
+        <v>77648</v>
       </c>
       <c r="L70" t="n">
-        <v>72.5</v>
+        <v>71567</v>
       </c>
       <c r="M70" t="n">
-        <v>87.5</v>
+        <v>30405</v>
       </c>
       <c r="N70" t="n">
-        <v>1.206896551724138</v>
+        <v>0.4248466471977308</v>
       </c>
     </row>
     <row r="71">
@@ -4109,40 +4109,40 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>70.8</v>
+        <v>3.6</v>
       </c>
       <c r="L71" t="n">
-        <v>70.5</v>
+        <v>3.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N71" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="72">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1731</v>
+        <v>54</v>
       </c>
       <c r="G72" t="n">
-        <v>992</v>
+        <v>57</v>
       </c>
       <c r="H72" t="n">
-        <v>869</v>
+        <v>60</v>
       </c>
       <c r="I72" t="n">
-        <v>1799</v>
+        <v>52</v>
       </c>
       <c r="J72" t="n">
-        <v>1660</v>
+        <v>55</v>
       </c>
       <c r="K72" t="n">
-        <v>1410.2</v>
+        <v>55.6</v>
       </c>
       <c r="L72" t="n">
-        <v>1313</v>
+        <v>56.5</v>
       </c>
       <c r="M72" t="n">
-        <v>486</v>
+        <v>-4.5</v>
       </c>
       <c r="N72" t="n">
-        <v>0.3701447067783701</v>
+        <v>-0.07964601769911504</v>
       </c>
     </row>
     <row r="73">
@@ -4213,40 +4213,40 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>-556</v>
+        <v>59</v>
       </c>
       <c r="G73" t="n">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="H73" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="I73" t="n">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="J73" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>59.2</v>
       </c>
       <c r="L73" t="n">
-        <v>-40.5</v>
+        <v>60</v>
       </c>
       <c r="M73" t="n">
-        <v>202.5</v>
+        <v>-4</v>
       </c>
       <c r="N73" t="n">
-        <v>-5</v>
+        <v>-0.06666666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -4265,40 +4265,40 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1175</v>
+        <v>-556</v>
       </c>
       <c r="G74" t="n">
-        <v>1174</v>
+        <v>182</v>
       </c>
       <c r="H74" t="n">
-        <v>1029</v>
+        <v>160</v>
       </c>
       <c r="I74" t="n">
-        <v>1961</v>
+        <v>162</v>
       </c>
       <c r="J74" t="n">
-        <v>1712</v>
+        <v>52</v>
       </c>
       <c r="K74" t="n">
-        <v>1410.2</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1272.5</v>
+        <v>-40.5</v>
       </c>
       <c r="M74" t="n">
-        <v>688.5</v>
+        <v>202.5</v>
       </c>
       <c r="N74" t="n">
-        <v>0.5410609037328095</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="75">
@@ -4317,40 +4317,40 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.1666</v>
+        <v>1731</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1665</v>
+        <v>992</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1459</v>
+        <v>869</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2781</v>
+        <v>1799</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2428</v>
+        <v>1660</v>
       </c>
       <c r="K75" t="n">
-        <v>0.19998</v>
+        <v>1410.2</v>
       </c>
       <c r="L75" t="n">
-        <v>0.18045</v>
+        <v>1313</v>
       </c>
       <c r="M75" t="n">
-        <v>0.09765000000000001</v>
+        <v>486</v>
       </c>
       <c r="N75" t="n">
-        <v>0.5411471321695761</v>
+        <v>0.3701447067783701</v>
       </c>
     </row>
     <row r="76">
@@ -4364,45 +4364,45 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>84</v>
+        <v>1175</v>
       </c>
       <c r="G76" t="n">
-        <v>89</v>
+        <v>1174</v>
       </c>
       <c r="H76" t="n">
-        <v>84</v>
+        <v>1029</v>
       </c>
       <c r="I76" t="n">
-        <v>90</v>
+        <v>1961</v>
       </c>
       <c r="J76" t="n">
-        <v>91</v>
+        <v>1712</v>
       </c>
       <c r="K76" t="n">
-        <v>87.59999999999999</v>
+        <v>1410.2</v>
       </c>
       <c r="L76" t="n">
-        <v>87</v>
+        <v>1272.5</v>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>688.5</v>
       </c>
       <c r="N76" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.5410609037328095</v>
       </c>
     </row>
     <row r="77">
@@ -4416,45 +4416,45 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.6</v>
+        <v>0.1666</v>
       </c>
       <c r="G77" t="n">
-        <v>4.9</v>
+        <v>0.1665</v>
       </c>
       <c r="H77" t="n">
-        <v>5.7</v>
+        <v>0.1459</v>
       </c>
       <c r="I77" t="n">
-        <v>5.5</v>
+        <v>0.2781</v>
       </c>
       <c r="J77" t="n">
-        <v>6.1</v>
+        <v>0.2428</v>
       </c>
       <c r="K77" t="n">
-        <v>5.359999999999999</v>
+        <v>0.19998</v>
       </c>
       <c r="L77" t="n">
-        <v>5.324999999999999</v>
+        <v>0.18045</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1750000000000007</v>
+        <v>0.09765000000000001</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03286384976525836</v>
+        <v>0.5411471321695761</v>
       </c>
     </row>
     <row r="78">
@@ -4468,17 +4468,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4520,45 +4520,45 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6</v>
+        <v>5.359999999999999</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5</v>
+        <v>5.324999999999999</v>
       </c>
       <c r="M79" t="n">
-        <v>0.5</v>
+        <v>0.1750000000000007</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0.03286384976525836</v>
       </c>
     </row>
     <row r="80">
@@ -4572,45 +4572,45 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>6000</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>4500</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>6000</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>4500</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>4800</v>
+        <v>2.2</v>
       </c>
       <c r="L80" t="n">
-        <v>4500</v>
+        <v>2.25</v>
       </c>
       <c r="M80" t="n">
-        <v>1500</v>
+        <v>-0.25</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="81">
@@ -4624,45 +4624,45 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>16000</v>
+        <v>2330</v>
       </c>
       <c r="G81" t="n">
-        <v>3000</v>
+        <v>648</v>
       </c>
       <c r="H81" t="n">
-        <v>8000</v>
+        <v>968</v>
       </c>
       <c r="I81" t="n">
-        <v>15000</v>
+        <v>1638</v>
       </c>
       <c r="J81" t="n">
-        <v>11500</v>
+        <v>1572</v>
       </c>
       <c r="K81" t="n">
-        <v>10700</v>
+        <v>1431.2</v>
       </c>
       <c r="L81" t="n">
-        <v>9625</v>
+        <v>1379.5</v>
       </c>
       <c r="M81" t="n">
-        <v>5375</v>
+        <v>258.5</v>
       </c>
       <c r="N81" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.1873867343240304</v>
       </c>
     </row>
     <row r="82">
@@ -4676,45 +4676,45 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>60</v>
+        <v>5000</v>
       </c>
       <c r="G82" t="n">
-        <v>130</v>
+        <v>1500</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I82" t="n">
-        <v>160</v>
+        <v>6000</v>
       </c>
       <c r="J82" t="n">
-        <v>100</v>
+        <v>4250</v>
       </c>
       <c r="K82" t="n">
-        <v>90</v>
+        <v>4350</v>
       </c>
       <c r="L82" t="n">
-        <v>72.5</v>
+        <v>3937.5</v>
       </c>
       <c r="M82" t="n">
-        <v>87.5</v>
+        <v>2062.5</v>
       </c>
       <c r="N82" t="n">
-        <v>1.206896551724138</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="83">
@@ -4728,45 +4728,45 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>70</v>
+        <v>16000</v>
       </c>
       <c r="G83" t="n">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="H83" t="n">
-        <v>71</v>
+        <v>8000</v>
       </c>
       <c r="I83" t="n">
-        <v>72</v>
+        <v>15000</v>
       </c>
       <c r="J83" t="n">
-        <v>81</v>
+        <v>11500</v>
       </c>
       <c r="K83" t="n">
-        <v>70.8</v>
+        <v>10700</v>
       </c>
       <c r="L83" t="n">
-        <v>70.5</v>
+        <v>9625</v>
       </c>
       <c r="M83" t="n">
-        <v>1.5</v>
+        <v>5375</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="84">
@@ -4780,45 +4780,45 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>351</v>
+        <v>70</v>
       </c>
       <c r="G84" t="n">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="H84" t="n">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="I84" t="n">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="J84" t="n">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="K84" t="n">
-        <v>288.2</v>
+        <v>70.8</v>
       </c>
       <c r="L84" t="n">
-        <v>275</v>
+        <v>70.5</v>
       </c>
       <c r="M84" t="n">
-        <v>66</v>
+        <v>1.5</v>
       </c>
       <c r="N84" t="n">
-        <v>0.24</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="85">
@@ -4832,45 +4832,45 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>351</v>
+        <v>60</v>
       </c>
       <c r="G85" t="n">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="H85" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>341</v>
+        <v>160</v>
       </c>
       <c r="J85" t="n">
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="K85" t="n">
-        <v>288.2</v>
+        <v>90</v>
       </c>
       <c r="L85" t="n">
-        <v>275</v>
+        <v>72.5</v>
       </c>
       <c r="M85" t="n">
-        <v>66</v>
+        <v>87.5</v>
       </c>
       <c r="N85" t="n">
-        <v>0.24</v>
+        <v>1.206896551724138</v>
       </c>
     </row>
     <row r="86">
@@ -4889,40 +4889,40 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.2436</v>
+        <v>29484</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1777</v>
+        <v>22784</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1513</v>
+        <v>18312</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2366</v>
+        <v>30690</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1908</v>
+        <v>25025</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2</v>
+        <v>25259</v>
       </c>
       <c r="L86" t="n">
-        <v>0.19085</v>
+        <v>23901.25</v>
       </c>
       <c r="M86" t="n">
-        <v>0.04575000000000001</v>
+        <v>6788.75</v>
       </c>
       <c r="N86" t="n">
-        <v>0.239717055279015</v>
+        <v>0.2840332618586894</v>
       </c>
     </row>
     <row r="87">
@@ -4936,45 +4936,45 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>2 - b - Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G87" t="n">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="H87" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="K87" t="n">
-        <v>16.2</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L87" t="n">
-        <v>20.25</v>
+        <v>87</v>
       </c>
       <c r="M87" t="n">
-        <v>-20.25</v>
+        <v>3</v>
       </c>
       <c r="N87" t="n">
-        <v>-1</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="88">
@@ -4988,45 +4988,45 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>2 - c - Online Orders (000s)</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="G88" t="n">
-        <v>4.3</v>
+        <v>256</v>
       </c>
       <c r="H88" t="n">
-        <v>4.2</v>
+        <v>218</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K88" t="n">
-        <v>1.7</v>
+        <v>288.2</v>
       </c>
       <c r="L88" t="n">
-        <v>2.125</v>
+        <v>275</v>
       </c>
       <c r="M88" t="n">
-        <v>-2.125</v>
+        <v>66</v>
       </c>
       <c r="N88" t="n">
-        <v>-1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="89">
@@ -5040,45 +5040,45 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>2 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="G89" t="n">
-        <v>1943</v>
+        <v>256</v>
       </c>
       <c r="H89" t="n">
-        <v>479</v>
+        <v>218</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K89" t="n">
-        <v>484.4</v>
+        <v>288.2</v>
       </c>
       <c r="L89" t="n">
-        <v>605.5</v>
+        <v>275</v>
       </c>
       <c r="M89" t="n">
-        <v>-605.5</v>
+        <v>66</v>
       </c>
       <c r="N89" t="n">
-        <v>-1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="90">
@@ -5092,45 +5092,45 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>2 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.2436</v>
       </c>
       <c r="G90" t="n">
-        <v>796</v>
+        <v>0.1777</v>
       </c>
       <c r="H90" t="n">
-        <v>479</v>
+        <v>0.1513</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.2366</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.1908</v>
       </c>
       <c r="K90" t="n">
-        <v>255</v>
+        <v>0.2</v>
       </c>
       <c r="L90" t="n">
-        <v>318.75</v>
+        <v>0.19085</v>
       </c>
       <c r="M90" t="n">
-        <v>-318.75</v>
+        <v>0.04575000000000001</v>
       </c>
       <c r="N90" t="n">
-        <v>-1</v>
+        <v>0.239717055279015</v>
       </c>
     </row>
     <row r="91">
@@ -5144,45 +5144,45 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+          <t>2 - e - Model Availability</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>0.624</v>
+        <v>272.4</v>
       </c>
       <c r="H91" t="n">
-        <v>0.376</v>
+        <v>245.2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>150.1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>248.2</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2</v>
+        <v>223.18</v>
       </c>
       <c r="L91" t="n">
-        <v>0.25</v>
+        <v>241.45</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.25</v>
+        <v>-91.34999999999999</v>
       </c>
       <c r="N91" t="n">
-        <v>-1</v>
+        <v>-0.3783392006626631</v>
       </c>
     </row>
     <row r="92">
@@ -5191,50 +5191,50 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>61</v>
+        <v>4.6</v>
       </c>
       <c r="G92" t="n">
-        <v>67</v>
+        <v>4.9</v>
       </c>
       <c r="H92" t="n">
-        <v>60</v>
+        <v>5.7</v>
       </c>
       <c r="I92" t="n">
-        <v>65</v>
+        <v>5.5</v>
       </c>
       <c r="J92" t="n">
-        <v>65</v>
+        <v>6.1</v>
       </c>
       <c r="K92" t="n">
-        <v>63.6</v>
+        <v>5.359999999999999</v>
       </c>
       <c r="L92" t="n">
-        <v>63.25</v>
+        <v>5.324999999999999</v>
       </c>
       <c r="M92" t="n">
-        <v>1.75</v>
+        <v>0.1750000000000007</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02766798418972332</v>
+        <v>0.03286384976525836</v>
       </c>
     </row>
     <row r="93">
@@ -5243,50 +5243,50 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>2 - f - Free Shipping</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="L93" t="n">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="M93" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -5295,50 +5295,50 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>2 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.9</v>
+        <v>16000</v>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="H94" t="n">
-        <v>5.8</v>
+        <v>8000</v>
       </c>
       <c r="I94" t="n">
-        <v>5.4</v>
+        <v>15000</v>
       </c>
       <c r="J94" t="n">
-        <v>6.3</v>
+        <v>11500</v>
       </c>
       <c r="K94" t="n">
-        <v>5.48</v>
+        <v>10700</v>
       </c>
       <c r="L94" t="n">
-        <v>5.5</v>
+        <v>9625</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.09999999999999964</v>
+        <v>5375</v>
       </c>
       <c r="N94" t="n">
-        <v>-0.01818181818181812</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="95">
@@ -5347,50 +5347,50 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>198.8</v>
+        <v>70</v>
       </c>
       <c r="G95" t="n">
-        <v>289.6</v>
+        <v>60</v>
       </c>
       <c r="H95" t="n">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="I95" t="n">
-        <v>180.4</v>
+        <v>72</v>
       </c>
       <c r="J95" t="n">
-        <v>249.8</v>
+        <v>81</v>
       </c>
       <c r="K95" t="n">
-        <v>233.52</v>
+        <v>70.8</v>
       </c>
       <c r="L95" t="n">
-        <v>246.8</v>
+        <v>70.5</v>
       </c>
       <c r="M95" t="n">
-        <v>-66.40000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.2690437601296596</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="96">
@@ -5399,50 +5399,50 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>2 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="L96" t="n">
-        <v>3</v>
+        <v>72.5</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1.206896551724138</v>
       </c>
     </row>
     <row r="97">
@@ -5451,50 +5451,50 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G97" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K97" t="n">
+        <v>4800</v>
+      </c>
+      <c r="L97" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M97" t="n">
         <v>1500</v>
       </c>
-      <c r="H97" t="n">
-        <v>4000</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3250</v>
-      </c>
-      <c r="K97" t="n">
-        <v>3550</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3187.5</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1812.5</v>
-      </c>
       <c r="N97" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="98">
@@ -5503,50 +5503,50 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>3 - a - Offer Income ($000s)</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2043</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>595</v>
+        <v>32636</v>
       </c>
       <c r="H98" t="n">
-        <v>602</v>
+        <v>19160</v>
       </c>
       <c r="I98" t="n">
-        <v>1397</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1125</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>1152.4</v>
+        <v>10359.2</v>
       </c>
       <c r="L98" t="n">
-        <v>1091.25</v>
+        <v>12949</v>
       </c>
       <c r="M98" t="n">
-        <v>305.75</v>
+        <v>-12949</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2801832760595647</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
@@ -5555,50 +5555,50 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>3 - b - Offer Price (max = $40.00)</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>12000</v>
+        <v>41</v>
       </c>
       <c r="H99" t="n">
-        <v>8000</v>
+        <v>40</v>
       </c>
       <c r="I99" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>9600</v>
+        <v>16.2</v>
       </c>
       <c r="L99" t="n">
-        <v>9500</v>
+        <v>20.25</v>
       </c>
       <c r="M99" t="n">
-        <v>500</v>
+        <v>-20.25</v>
       </c>
       <c r="N99" t="n">
-        <v>0.05263157894736842</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -5607,50 +5607,50 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>3 - c - Pairs Offered (000s)</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>155</v>
+        <v>1943</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="I100" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>79</v>
+        <v>484.4</v>
       </c>
       <c r="L100" t="n">
-        <v>65</v>
+        <v>605.5</v>
       </c>
       <c r="M100" t="n">
-        <v>70</v>
+        <v>-605.5</v>
       </c>
       <c r="N100" t="n">
-        <v>1.076923076923077</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -5659,50 +5659,50 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>3 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>60</v>
+        <v>796</v>
       </c>
       <c r="H101" t="n">
-        <v>71</v>
+        <v>479</v>
       </c>
       <c r="I101" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>70.8</v>
+        <v>255</v>
       </c>
       <c r="L101" t="n">
-        <v>70.5</v>
+        <v>318.75</v>
       </c>
       <c r="M101" t="n">
-        <v>1.5</v>
+        <v>-318.75</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02127659574468085</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -5711,50 +5711,50 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>3 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1568</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1613</v>
+        <v>0.624</v>
       </c>
       <c r="H102" t="n">
-        <v>1133</v>
+        <v>0.376</v>
       </c>
       <c r="I102" t="n">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1506</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1456</v>
+        <v>0.2</v>
       </c>
       <c r="L102" t="n">
-        <v>1455</v>
+        <v>0.25</v>
       </c>
       <c r="M102" t="n">
-        <v>5</v>
+        <v>-0.25</v>
       </c>
       <c r="N102" t="n">
-        <v>0.003436426116838488</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -5763,50 +5763,50 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>-298</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
-        <v>-331</v>
+        <v>4.2</v>
       </c>
       <c r="I103" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>-71</v>
+        <v>1.7</v>
       </c>
       <c r="L103" t="n">
-        <v>-129</v>
+        <v>2.125</v>
       </c>
       <c r="M103" t="n">
-        <v>290</v>
+        <v>-2.125</v>
       </c>
       <c r="N103" t="n">
-        <v>-2.248062015503876</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
@@ -5825,40 +5825,40 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1589</v>
+        <v>90573</v>
       </c>
       <c r="G104" t="n">
-        <v>1315</v>
+        <v>80215</v>
       </c>
       <c r="H104" t="n">
-        <v>802</v>
+        <v>48120</v>
       </c>
       <c r="I104" t="n">
-        <v>1621</v>
+        <v>98881</v>
       </c>
       <c r="J104" t="n">
-        <v>1598</v>
+        <v>95880</v>
       </c>
       <c r="K104" t="n">
-        <v>1385</v>
+        <v>82733.8</v>
       </c>
       <c r="L104" t="n">
-        <v>1326</v>
+        <v>78697</v>
       </c>
       <c r="M104" t="n">
-        <v>295</v>
+        <v>20184</v>
       </c>
       <c r="N104" t="n">
-        <v>0.222473604826546</v>
+        <v>0.2564773752493742</v>
       </c>
     </row>
     <row r="105">
@@ -5877,40 +5877,40 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.2295</v>
+        <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1899</v>
+        <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1158</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2341</v>
+        <v>4</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2308</v>
+        <v>5</v>
       </c>
       <c r="K105" t="n">
-        <v>0.20002</v>
+        <v>3.8</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1915</v>
+        <v>3.75</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0426</v>
+        <v>0.25</v>
       </c>
       <c r="N105" t="n">
-        <v>0.2224543080939948</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="106">
@@ -5924,45 +5924,45 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G106" t="n">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="H106" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I106" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="J106" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="K106" t="n">
-        <v>93.40000000000001</v>
+        <v>59.8</v>
       </c>
       <c r="L106" t="n">
-        <v>90.5</v>
+        <v>59.5</v>
       </c>
       <c r="M106" t="n">
-        <v>14.5</v>
+        <v>1.5</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1602209944751381</v>
+        <v>0.02521008403361345</v>
       </c>
     </row>
     <row r="107">
@@ -5976,45 +5976,45 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4.9</v>
+        <v>61</v>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H107" t="n">
-        <v>5.8</v>
+        <v>60</v>
       </c>
       <c r="I107" t="n">
-        <v>5.4</v>
+        <v>65</v>
       </c>
       <c r="J107" t="n">
-        <v>6.3</v>
+        <v>65</v>
       </c>
       <c r="K107" t="n">
-        <v>5.48</v>
+        <v>63.6</v>
       </c>
       <c r="L107" t="n">
-        <v>5.5</v>
+        <v>63.25</v>
       </c>
       <c r="M107" t="n">
-        <v>-0.09999999999999964</v>
+        <v>1.75</v>
       </c>
       <c r="N107" t="n">
-        <v>-0.01818181818181812</v>
+        <v>0.02766798418972332</v>
       </c>
     </row>
     <row r="108">
@@ -6028,45 +6028,45 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>198.8</v>
+        <v>21</v>
       </c>
       <c r="G108" t="n">
-        <v>289.6</v>
+        <v>-298</v>
       </c>
       <c r="H108" t="n">
-        <v>249</v>
+        <v>-331</v>
       </c>
       <c r="I108" t="n">
-        <v>180.4</v>
+        <v>161</v>
       </c>
       <c r="J108" t="n">
-        <v>249.8</v>
+        <v>92</v>
       </c>
       <c r="K108" t="n">
-        <v>233.52</v>
+        <v>-71</v>
       </c>
       <c r="L108" t="n">
-        <v>246.8</v>
+        <v>-129</v>
       </c>
       <c r="M108" t="n">
-        <v>-66.40000000000001</v>
+        <v>290</v>
       </c>
       <c r="N108" t="n">
-        <v>-0.2690437601296596</v>
+        <v>-2.248062015503876</v>
       </c>
     </row>
     <row r="109">
@@ -6080,45 +6080,45 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>1568</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1613</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1133</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>1460</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1506</v>
       </c>
       <c r="K109" t="n">
-        <v>0.4</v>
+        <v>1456</v>
       </c>
       <c r="L109" t="n">
-        <v>0.25</v>
+        <v>1455</v>
       </c>
       <c r="M109" t="n">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="N109" t="n">
-        <v>3</v>
+        <v>0.003436426116838488</v>
       </c>
     </row>
     <row r="110">
@@ -6132,45 +6132,45 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4000</v>
+        <v>1589</v>
       </c>
       <c r="G110" t="n">
-        <v>1000</v>
+        <v>1315</v>
       </c>
       <c r="H110" t="n">
-        <v>4500</v>
+        <v>802</v>
       </c>
       <c r="I110" t="n">
-        <v>6000</v>
+        <v>1621</v>
       </c>
       <c r="J110" t="n">
-        <v>4000</v>
+        <v>1598</v>
       </c>
       <c r="K110" t="n">
-        <v>3900</v>
+        <v>1385</v>
       </c>
       <c r="L110" t="n">
-        <v>3375</v>
+        <v>1326</v>
       </c>
       <c r="M110" t="n">
-        <v>2625</v>
+        <v>295</v>
       </c>
       <c r="N110" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.222473604826546</v>
       </c>
     </row>
     <row r="111">
@@ -6184,45 +6184,45 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>9000</v>
+        <v>0.2295</v>
       </c>
       <c r="G111" t="n">
-        <v>12000</v>
+        <v>0.1899</v>
       </c>
       <c r="H111" t="n">
-        <v>8000</v>
+        <v>0.1158</v>
       </c>
       <c r="I111" t="n">
-        <v>10000</v>
+        <v>0.2341</v>
       </c>
       <c r="J111" t="n">
-        <v>9000</v>
+        <v>0.2308</v>
       </c>
       <c r="K111" t="n">
-        <v>9600</v>
+        <v>0.20002</v>
       </c>
       <c r="L111" t="n">
-        <v>9500</v>
+        <v>0.1915</v>
       </c>
       <c r="M111" t="n">
-        <v>500</v>
+        <v>0.0426</v>
       </c>
       <c r="N111" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.2224543080939948</v>
       </c>
     </row>
     <row r="112">
@@ -6236,45 +6236,45 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>40</v>
+        <v>198.8</v>
       </c>
       <c r="G112" t="n">
-        <v>155</v>
+        <v>289.6</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="I112" t="n">
-        <v>135</v>
+        <v>180.4</v>
       </c>
       <c r="J112" t="n">
-        <v>65</v>
+        <v>249.8</v>
       </c>
       <c r="K112" t="n">
-        <v>79</v>
+        <v>233.52</v>
       </c>
       <c r="L112" t="n">
-        <v>65</v>
+        <v>246.8</v>
       </c>
       <c r="M112" t="n">
-        <v>70</v>
+        <v>-66.40000000000001</v>
       </c>
       <c r="N112" t="n">
-        <v>1.076923076923077</v>
+        <v>-0.2690437601296596</v>
       </c>
     </row>
     <row r="113">
@@ -6288,45 +6288,45 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>70</v>
+        <v>4.9</v>
       </c>
       <c r="G113" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H113" t="n">
-        <v>71</v>
+        <v>5.8</v>
       </c>
       <c r="I113" t="n">
-        <v>72</v>
+        <v>5.4</v>
       </c>
       <c r="J113" t="n">
-        <v>81</v>
+        <v>6.3</v>
       </c>
       <c r="K113" t="n">
-        <v>70.8</v>
+        <v>5.48</v>
       </c>
       <c r="L113" t="n">
-        <v>70.5</v>
+        <v>5.5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.5</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02127659574468085</v>
+        <v>-0.01818181818181812</v>
       </c>
     </row>
     <row r="114">
@@ -6340,45 +6340,45 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>316</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>282</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>284</v>
+        <v>3</v>
       </c>
       <c r="K114" t="n">
-        <v>289</v>
+        <v>3</v>
       </c>
       <c r="L114" t="n">
-        <v>295.25</v>
+        <v>3</v>
       </c>
       <c r="M114" t="n">
-        <v>-31.25</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>-0.1058425063505504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -6392,45 +6392,45 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>316</v>
+        <v>2043</v>
       </c>
       <c r="G115" t="n">
-        <v>282</v>
+        <v>595</v>
       </c>
       <c r="H115" t="n">
-        <v>299</v>
+        <v>602</v>
       </c>
       <c r="I115" t="n">
-        <v>264</v>
+        <v>1397</v>
       </c>
       <c r="J115" t="n">
-        <v>284</v>
+        <v>1125</v>
       </c>
       <c r="K115" t="n">
-        <v>289</v>
+        <v>1152.4</v>
       </c>
       <c r="L115" t="n">
-        <v>295.25</v>
+        <v>1091.25</v>
       </c>
       <c r="M115" t="n">
-        <v>-31.25</v>
+        <v>305.75</v>
       </c>
       <c r="N115" t="n">
-        <v>-0.1058425063505504</v>
+        <v>0.2801832760595647</v>
       </c>
     </row>
     <row r="116">
@@ -6444,45 +6444,45 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.2187</v>
+        <v>4000</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1952</v>
+        <v>1500</v>
       </c>
       <c r="H116" t="n">
-        <v>0.2069</v>
+        <v>4000</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1827</v>
+        <v>5000</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1965</v>
+        <v>3250</v>
       </c>
       <c r="K116" t="n">
-        <v>0.2</v>
+        <v>3550</v>
       </c>
       <c r="L116" t="n">
-        <v>0.204325</v>
+        <v>3187.5</v>
       </c>
       <c r="M116" t="n">
-        <v>-0.02162500000000001</v>
+        <v>1812.5</v>
       </c>
       <c r="N116" t="n">
-        <v>-0.105836290223908</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="117">
@@ -6496,45 +6496,45 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H117" t="n">
-        <v>40</v>
+        <v>8000</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="K117" t="n">
-        <v>8</v>
+        <v>9600</v>
       </c>
       <c r="L117" t="n">
-        <v>10</v>
+        <v>9500</v>
       </c>
       <c r="M117" t="n">
-        <v>-10</v>
+        <v>500</v>
       </c>
       <c r="N117" t="n">
-        <v>-1</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="118">
@@ -6548,45 +6548,45 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H118" t="n">
-        <v>4.4</v>
+        <v>71</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K118" t="n">
-        <v>0.8800000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="L118" t="n">
-        <v>1.1</v>
+        <v>70.5</v>
       </c>
       <c r="M118" t="n">
-        <v>-1.1</v>
+        <v>1.5</v>
       </c>
       <c r="N118" t="n">
-        <v>-1</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="119">
@@ -6600,45 +6600,45 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="H119" t="n">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K119" t="n">
-        <v>155.4</v>
+        <v>79</v>
       </c>
       <c r="L119" t="n">
-        <v>194.25</v>
+        <v>65</v>
       </c>
       <c r="M119" t="n">
-        <v>-194.25</v>
+        <v>70</v>
       </c>
       <c r="N119" t="n">
-        <v>-1</v>
+        <v>1.076923076923077</v>
       </c>
     </row>
     <row r="120">
@@ -6652,45 +6652,45 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>27176</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>27918</v>
       </c>
       <c r="H120" t="n">
-        <v>777</v>
+        <v>25116</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>27720</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>26412</v>
       </c>
       <c r="K120" t="n">
-        <v>155.4</v>
+        <v>26868.4</v>
       </c>
       <c r="L120" t="n">
-        <v>194.25</v>
+        <v>26655.5</v>
       </c>
       <c r="M120" t="n">
-        <v>-194.25</v>
+        <v>1064.5</v>
       </c>
       <c r="N120" t="n">
-        <v>-1</v>
+        <v>0.03993547297931008</v>
       </c>
     </row>
     <row r="121">
@@ -6704,44 +6704,876 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>86</v>
+      </c>
+      <c r="G121" t="n">
+        <v>99</v>
+      </c>
+      <c r="H121" t="n">
+        <v>84</v>
+      </c>
+      <c r="I121" t="n">
+        <v>105</v>
+      </c>
+      <c r="J121" t="n">
+        <v>93</v>
+      </c>
+      <c r="K121" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="L121" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="M121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.1602209944751381</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>12</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>316</v>
+      </c>
+      <c r="G122" t="n">
+        <v>282</v>
+      </c>
+      <c r="H122" t="n">
+        <v>299</v>
+      </c>
+      <c r="I122" t="n">
+        <v>264</v>
+      </c>
+      <c r="J122" t="n">
+        <v>284</v>
+      </c>
+      <c r="K122" t="n">
+        <v>289</v>
+      </c>
+      <c r="L122" t="n">
+        <v>295.25</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-31.25</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-0.1058425063505504</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>12</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>316</v>
+      </c>
+      <c r="G123" t="n">
+        <v>282</v>
+      </c>
+      <c r="H123" t="n">
+        <v>299</v>
+      </c>
+      <c r="I123" t="n">
+        <v>264</v>
+      </c>
+      <c r="J123" t="n">
+        <v>284</v>
+      </c>
+      <c r="K123" t="n">
+        <v>289</v>
+      </c>
+      <c r="L123" t="n">
+        <v>295.25</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-31.25</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.1058425063505504</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>12</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.2187</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.1952</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.2069</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.1827</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.1965</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.204325</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-0.02162500000000001</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.105836290223908</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>12</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="G125" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="H125" t="n">
+        <v>249</v>
+      </c>
+      <c r="I125" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="K125" t="n">
+        <v>233.52</v>
+      </c>
+      <c r="L125" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-66.40000000000001</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.2690437601296596</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>12</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="L126" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-0.01818181818181812</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>12</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>12</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H128" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K128" t="n">
+        <v>9600</v>
+      </c>
+      <c r="L128" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M128" t="n">
+        <v>500</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>12</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>70</v>
+      </c>
+      <c r="G129" t="n">
+        <v>60</v>
+      </c>
+      <c r="H129" t="n">
+        <v>71</v>
+      </c>
+      <c r="I129" t="n">
+        <v>72</v>
+      </c>
+      <c r="J129" t="n">
+        <v>81</v>
+      </c>
+      <c r="K129" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L129" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.02127659574468085</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>12</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>40</v>
+      </c>
+      <c r="G130" t="n">
+        <v>155</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>135</v>
+      </c>
+      <c r="J130" t="n">
+        <v>65</v>
+      </c>
+      <c r="K130" t="n">
+        <v>79</v>
+      </c>
+      <c r="L130" t="n">
+        <v>65</v>
+      </c>
+      <c r="M130" t="n">
+        <v>70</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.076923076923077</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>12</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H131" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K131" t="n">
+        <v>3900</v>
+      </c>
+      <c r="L131" t="n">
+        <v>3375</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2625</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>12</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>3 - Privada</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>F - Cuota</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>31080</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>6216</v>
+      </c>
+      <c r="L132" t="n">
+        <v>7770</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-7770</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>12</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>40</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>8</v>
+      </c>
+      <c r="L133" t="n">
+        <v>10</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>12</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>777</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="L134" t="n">
+        <v>194.25</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-194.25</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>12</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>777</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="L135" t="n">
+        <v>194.25</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-194.25</v>
+      </c>
+      <c r="N135" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>12</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.609</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.1218</v>
       </c>
-      <c r="L121" t="n">
+      <c r="L136" t="n">
         <v>0.15225</v>
       </c>
-      <c r="M121" t="n">
+      <c r="M136" t="n">
         <v>-0.15225</v>
       </c>
-      <c r="N121" t="n">
+      <c r="N136" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>12</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="N137" t="n">
         <v>-1</v>
       </c>
     </row>
